--- a/API.xlsx
+++ b/API.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>API URL</t>
   </si>
@@ -54,9 +54,6 @@
     <t>https://shivaconceptsolution.com/webservices/reg.php</t>
   </si>
   <si>
-    <t>email, pwd,name</t>
-  </si>
-  <si>
     <t>https://shivaconceptsolution.com/webservices/login.php</t>
   </si>
   <si>
@@ -82,6 +79,27 @@
   </si>
   <si>
     <t>https://shivaconceptsolution.com/webservices/location.php</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>It should show all records of registration form in JSON (Java Script Object Notation) format</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>as per expected</t>
+  </si>
+  <si>
+    <t>It should add new record into database  and show status 1 and done user added message</t>
+  </si>
+  <si>
+    <t>blank data inserted</t>
+  </si>
+  <si>
+    <t>email, pwd,name,dob,mobile</t>
   </si>
 </sst>
 </file>
@@ -435,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -446,11 +464,12 @@
     <col min="1" max="1" width="72.85546875" customWidth="1"/>
     <col min="2" max="2" width="47.7109375" customWidth="1"/>
     <col min="3" max="3" width="47.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="70.5703125" customWidth="1"/>
+    <col min="4" max="5" width="82.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="70.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,13 +480,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -478,13 +503,19 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -492,73 +523,82 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>8</v>
       </c>
     </row>
